--- a/ilin_R1_by_R2 (2 by 1)100.xlsx
+++ b/ilin_R1_by_R2 (2 by 1)100.xlsx
@@ -9,6 +9,7 @@
     <sheet name="ilin" r:id="rId3" sheetId="1"/>
     <sheet name="ilin_pert" r:id="rId4" sheetId="2"/>
     <sheet name="ilin_pert_2" r:id="rId5" sheetId="3"/>
+    <sheet name="lin" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -319,6 +320,134 @@
         <v>-0.09931460091986383</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.564296520423601</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.522885111907467</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.988602060976653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.092755786451434</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.00065379356717</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.920405901424957</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.11400684973504</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37.91128847407506</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.72748445387241</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60.085343019991036</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75.642965204236</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95.22885111907468</v>
+      </c>
+      <c r="M3" t="n">
+        <v>119.88602060976653</v>
+      </c>
+      <c r="N3" t="n">
+        <v>150.92755786451434</v>
+      </c>
+      <c r="O3" t="n">
+        <v>190.00653793567173</v>
+      </c>
+      <c r="P3" t="n">
+        <v>239.20405901424957</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>301.1400684973504</v>
+      </c>
+      <c r="R3" t="n">
+        <v>379.1128847407506</v>
+      </c>
+      <c r="S3" t="n">
+        <v>477.2748445387241</v>
+      </c>
+      <c r="T3" t="n">
+        <v>600.8534301999103</v>
+      </c>
+      <c r="U3" t="n">
+        <v>756.4296520423601</v>
+      </c>
+      <c r="V3" t="n">
+        <v>952.2885111907467</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1198.8602060976652</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1509.2755786451435</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1900.0653793567171</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2392.0405901424956</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3011.400684973504</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3791.128847407506</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4772.748445387241</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6008.534301999103</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7564.296520423601</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9522.885111907468</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11988.602060976653</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15092.755786451435</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19000.653793567173</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23920.405901424958</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30114.00684973504</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>37911.28847407506</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>47727.48445387241</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>60085.343019991036</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>75642.96520423601</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>95228.85111907468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -586,6 +715,134 @@
       </c>
       <c r="AP2" t="n">
         <v>-0.0993106319761279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.564296520423601</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.522885111907467</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.988602060976653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.092755786451434</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.00065379356717</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.920405901424957</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.11400684973504</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37.91128847407506</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.72748445387241</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60.085343019991036</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75.642965204236</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95.22885111907468</v>
+      </c>
+      <c r="M3" t="n">
+        <v>119.88602060976653</v>
+      </c>
+      <c r="N3" t="n">
+        <v>150.92755786451434</v>
+      </c>
+      <c r="O3" t="n">
+        <v>190.00653793567173</v>
+      </c>
+      <c r="P3" t="n">
+        <v>239.20405901424957</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>301.1400684973504</v>
+      </c>
+      <c r="R3" t="n">
+        <v>379.1128847407506</v>
+      </c>
+      <c r="S3" t="n">
+        <v>477.2748445387241</v>
+      </c>
+      <c r="T3" t="n">
+        <v>600.8534301999103</v>
+      </c>
+      <c r="U3" t="n">
+        <v>756.4296520423601</v>
+      </c>
+      <c r="V3" t="n">
+        <v>952.2885111907467</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1198.8602060976652</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1509.2755786451435</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1900.0653793567171</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2392.0405901424956</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3011.400684973504</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3791.128847407506</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4772.748445387241</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6008.534301999103</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7564.296520423601</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9522.885111907468</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11988.602060976653</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15092.755786451435</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19000.653793567173</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23920.405901424958</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30114.00684973504</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>37911.28847407506</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>47727.48445387241</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>60085.343019991036</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>75642.96520423601</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>95228.85111907468</v>
       </c>
     </row>
   </sheetData>
@@ -857,6 +1114,275 @@
         <v>-0.09931460395970566</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.564296520423601</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.522885111907467</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.988602060976653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.092755786451434</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.00065379356717</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.920405901424957</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.11400684973504</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37.91128847407506</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.72748445387241</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60.085343019991036</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75.642965204236</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95.22885111907468</v>
+      </c>
+      <c r="M3" t="n">
+        <v>119.88602060976653</v>
+      </c>
+      <c r="N3" t="n">
+        <v>150.92755786451434</v>
+      </c>
+      <c r="O3" t="n">
+        <v>190.00653793567173</v>
+      </c>
+      <c r="P3" t="n">
+        <v>239.20405901424957</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>301.1400684973504</v>
+      </c>
+      <c r="R3" t="n">
+        <v>379.1128847407506</v>
+      </c>
+      <c r="S3" t="n">
+        <v>477.2748445387241</v>
+      </c>
+      <c r="T3" t="n">
+        <v>600.8534301999103</v>
+      </c>
+      <c r="U3" t="n">
+        <v>756.4296520423601</v>
+      </c>
+      <c r="V3" t="n">
+        <v>952.2885111907467</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1198.8602060976652</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1509.2755786451435</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1900.0653793567171</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2392.0405901424956</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3011.400684973504</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3791.128847407506</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4772.748445387241</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6008.534301999103</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7564.296520423601</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9522.885111907468</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11988.602060976653</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15092.755786451435</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19000.653793567173</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23920.405901424958</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30114.00684973504</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>37911.28847407506</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>47727.48445387241</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>60085.343019991036</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>75642.96520423601</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>95228.85111907468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7.564296520423601</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.522885111907467</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.988602060976653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.092755786451434</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.00065379356717</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.920405901424957</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.11400684973504</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37.91128847407506</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.72748445387241</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60.085343019991036</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75.642965204236</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95.22885111907468</v>
+      </c>
+      <c r="M3" t="n">
+        <v>119.88602060976653</v>
+      </c>
+      <c r="N3" t="n">
+        <v>150.92755786451434</v>
+      </c>
+      <c r="O3" t="n">
+        <v>190.00653793567173</v>
+      </c>
+      <c r="P3" t="n">
+        <v>239.20405901424957</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>301.1400684973504</v>
+      </c>
+      <c r="R3" t="n">
+        <v>379.1128847407506</v>
+      </c>
+      <c r="S3" t="n">
+        <v>477.2748445387241</v>
+      </c>
+      <c r="T3" t="n">
+        <v>600.8534301999103</v>
+      </c>
+      <c r="U3" t="n">
+        <v>756.4296520423601</v>
+      </c>
+      <c r="V3" t="n">
+        <v>952.2885111907467</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1198.8602060976652</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1509.2755786451435</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1900.0653793567171</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2392.0405901424956</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3011.400684973504</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3791.128847407506</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4772.748445387241</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6008.534301999103</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7564.296520423601</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9522.885111907468</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11988.602060976653</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15092.755786451435</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19000.653793567173</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>23920.405901424958</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>30114.00684973504</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>37911.28847407506</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>47727.48445387241</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>60085.343019991036</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>75642.96520423601</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>95228.85111907468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
